--- a/biology/Botanique/Ticodendraceae/Ticodendraceae.xlsx
+++ b/biology/Botanique/Ticodendraceae/Ticodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ticodendraceae sont une famille de plantes dicotylédones de l'ordre des Fagales qui comprend une unique espèce, Ticodendron incognitum, d'arbres à feuilles persistantes, originaire de l'Amérique Centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Ticodendron composé de tico, nom familier donné aux personnes natives du Costa Rica, et du grec δένδρων / dendron, arbre, le nom signifiant donc littéralement « arbre  Costaricien ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010)[1], Angiosperm Phylogeny Website                        (31 mai 2010)[2], NCBI  (31 mai 2010)[3] et DELTA Angio           (31 mai 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010), Angiosperm Phylogeny Website                        (31 mai 2010), NCBI  (31 mai 2010) et DELTA Angio           (31 mai 2010) :
 genre Ticodendron Gómez-Laur. &amp; L.D.Gómez (1989)</t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010)[1], NCBI  (31 mai 2010)[3] et DELTA Angio           (31 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010), NCBI  (31 mai 2010) et DELTA Angio           (31 mai 2010) :
 genre Ticodendron Gómez-Laur. &amp; L.D.Gómez (1989)
 Ticodendron incognitum Gómez-Laur. &amp; L.D.Gómez (1989)</t>
         </is>
